--- a/input.xlsx
+++ b/input.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\scrape_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35664E07-CD1B-4DDE-8046-91754CCE5C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3A49BB-FD39-40AB-A9C2-4D8B5396FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="945" windowWidth="23625" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,26 +25,877 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>https://www.tuyendunghaiphong.vn/viec-lam/910383/tuyen-nhan-vien-media-chup-chinh-anh-quay-dung-video-nganh-xay-dung</t>
-  </si>
-  <si>
-    <t>https://www.tuyendunghaiphong.vn/viec-lam/910374/tuyen-dung-nhan-vien-hanh-chinh-nhan-su-uu-tien-biet-tieng-nhat-tuong-duong-n3</t>
-  </si>
-  <si>
-    <t>https://www.tuyendunghaiphong.vn/viec-lam/910250/tuyen-ky-su-qa-qc-lam-viec-tai-phan-xuong-thanh-pham</t>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/3064/tuyen-gap-nhan-vien-ban-hang-thoi-trang-tre-em-cao-cap-o-73-cat-dai</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/3063/nhan-vien-ban-hang-thoi-trang-tre-em-cao-cap-tai-73-cat-dai</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/3044/tuyen-gap-20-chuyen-vien-kinh-doanh-bat-dong-san</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2987/tuyen-thu-hoi-no</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2981/tuyen-gap-nhan-vien-kinh-doanh-tieng-anh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2979/tuyen-gap-nhan-vien-kinh-doanh-tieng-anh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2978/nhan-vien-ban-kiem-soat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2977/nhan-vien-ban-kiem-soat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2975/nhan-vien-ban-kiem-soat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2974/nhan-vien-khai-bao-hai-quan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2973/nhan-vien-ban-kiem-soat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2960/-nhan-vien-phong-hanh-chinhnhan-su</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2958/phien-dich-tieng-nhat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2872/nhan-vien-kinh-doanh-telesales-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2836/tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2835/tuyen-nhan-vien-van-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2831/ky-su-trien-khai-thi-cong-cong-trinh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2830/tuyen-ky-su-thiet-ke-va-giam-sat-cac-cong-trinh-dien</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2828/cong-ty-cp-phat-trien-xay-dung-md66-can-tuyen-gap-01-ky-su-hien-truong-lam-viec-tai-cong-trinh-pho-noi-a--hung-yen</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2827/cong-ty-cp-phat-trien-xay-dung-md66-can-tuyen-gap-01-ky-su-hien-truong-lam-viec-tai-cong-trinh-pho-noi-a--hung-yen</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2826/cong-ty-cp-phat-trien-xay-dung-md66-chuyen-thi-cong-xay-dung-dan-dung-va-cong-nghiep-can-tuyen-cop-pha-va-tho-cot-thep-lam-tai-cong-truong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2825/can-tuyen-tho-co-khi-tho-han-sat-tho-han-noc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2815/nhan-vien-chuyen-lam-thu-tuc-hai-quan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2793/tuyen-nhan-vien-bao-ve-lam-viec-lau-dai-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2791/tuyen-nu-nhan-vien-le-tan-lam-viec-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2744/tuyen-truong-phong-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2739/truong-phong-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2734/tuyen-chuyen-vien-tu-van-bat-dong-san</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2733/tuyen-20-chuyen-vien-tu-van-bat-dong-san-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2732/tuyen-chuyen-vien-tu-van-bat-dong-san</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2731/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2729/tuyen-kien-truc-su-hoa-vien-kien-truc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2679/tuyen-nhan-vien-ho-tro-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2635/nhan-vien-ho-tro-ky-thuat-tai-nha-khach-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2634/nhan-vien-kinh-doanh-fpt</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2633/nhan-vien-thu-cuoc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2575/nhan-vien-hoa-phan-tich</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2574/nhan-vien-hoa-phan-tich</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2566/hanh-chinh-tong-hop</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2563/kien-truc-viet-tuyen-nhan-vien-cong-nghe-thong-tin-nu</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2562/kien-truc-viet-tuyen-nhan-vien-cong-nghe-thong-tin-nu</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2544/tuyen-2-kien-truc-su</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2543/kien-truc-su-2-nguoi-hoa-vien-kien-truc-2-nguoi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2542/kien-truc-su-2-nguoi-hao-vien-kien-truc-2-nguoi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2541/kien-truc-su-2-nguoi-hao-vien-kien-truc-2-nguoi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2540/kien-truc-su-2-nguoi-hao-vien-kien-truc-2-nguoi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2539/kien-truc-su-2-nguoi-hao-vien-kien-truc-2-nguoi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2515/tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2514/tuyen-pho-giam-doc-kinh-doanh-quan-he-quoc-te</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2512/tuyen-pho-giam-doc-kinh-doanh-quan-he-quoc-te</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2462/tuyen-dung-thang-8-2014-co-hoi-vang-tro-thanh-nhan-vien-kinh-doanh-vinaweb</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2461/tuyen-dung-thang-7-2014-co-hoi-vang-tro-thanh-nhan-vien-kinh-doanh-vinaweb</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2448/nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2376/truong-anh-ngu-popodoo-hai-phong-tuyen-dung-vi-tri-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2375/tuyen-nhan-vien-tu-van-tuyen-sinh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2374/tuyen-gap-tu-van-cham-soc-khach-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2373/tuyen-gap-tu-van-cham-soc-khach-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2364/quan-ly-caddiecaddie-master</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2363/tuyen-caddie-master-nguoi-quan-ly-nhan-vien-caddie</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2362/giam-sat-dieu-hanh-san-gon</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2361/nhan-vien-nam-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2357/nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2356/tho-sua-chua-dieu-hoa</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2355/bep-chinh-bep-au</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2253/truong-phong-marketing</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2252/nhan-vien-kinh-doanh-o-to</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2251/nhan-vien-kinh-doanh-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2250/nhan-vien-kinh-doanh-xe-va-phu-tung-xe</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2249/tho-may-gam-howo</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2248/nhan-vien-kinh-doanh-o-to-luong-cung-5-trieu-tro-len</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2247/chuyen-vien-nhan-su-tong-hop-luong-9-15-trieu</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2246/nhan-vien-quan-ly-chat-luong-nam</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2245/nhan-vien-bao-hanh-dau-ngoai-tieng-trung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2240/tuyen-giao-vien-giang-day-ky-nang-song-tai-hai-phong-tu-ngay-16-2-2014</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2236/bao-an-tuyen-dung-nhan-vien-thiet-ke-dien-thi-cong-dien-va-thi-cong-co</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2235/bao-an-tuyen-lap-trinh-vien-net</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2234/bao-an-tuyen-dung-nhan-vien-du-an</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2233/bao-an-tuyen-dung-vi-tri-thiet-ke-co-khi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2232/bao-an-tuyen-dung-nhan-vien-xuat-nhap-khau-trong-thang-04-2016</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2231/tuyen-nhan-vien-kinh-doanh-trong-thang-04-2016</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2230/bao-an-tuyen-dung-nhan-vien-du-an</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2229/bao-an-tuyen-lap-trinh-vien-net</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2228/bao-an-tuyen-dung-nhan-vien-kinh-doanh-trong-thang-03-2016</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2227/bao-an-tuyen-dung-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/2150/nhan-vien-kinh-doanh-phat-trien-thi-truong-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1984/tuyen-chuyen-vien-kho-xuat-nhap-khau--mua-hang-tai-hcm</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1983/nhan-vien-qc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1982/tuyen-nhan-vien-mua-hang-xuat-nhap-khau</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1981/tuyen-ke-toan-tong-hop</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1978/ky-thuat-vien-phong-nghien-cuu-phat-trien</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1977/tuyen-dung-nhan-vien-it</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1976/nhan-vien-ke-toan-tong-hop</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1975/truong-bo-phan-qa</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1974/nhan-vien-mua-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1972/tuyen-dung-nhan-vien-it</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1942/tuyen-nhan-vien-moi-gioi-hai-quan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1941/nhan-vien-moi-gioi-hai-quan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1940/01-nhan-vien-moi-gioi-hai-quan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1938/tuyen-dung-01-nhan-vien-moi-gioi-hai-quan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1937/tuyen-dung-01-nhan-vien-moi-gioi-hai-quan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1922/tuyen-nhan-vien-phat-trien-thi-truong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1921/tuyen-dung-giam-sat-phat-trien-thi-truong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1920/tuyen-dung-nhan-vien-phat-trien-thi-truong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1919/tuyen-dung-vi-tri-nhan-vien-phat-trien-thi-truong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1910/tuyen-cong-tac-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1866/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1865/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1864/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1863/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1862/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1861/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1860/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1859/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1858/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1857/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1856/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1855/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1854/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1853/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1852/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1851/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1850/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1849/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1848/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1847/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1846/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1845/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1844/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1843/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1842/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1841/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1840/tuyen-nhan-vien-le-tan</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1839/tuyen-tro-ly-gian-doc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1838/tuyen-giam-sat-ban-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1837/tuyen-nam-phien-dich-tieng-trung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1835/tuyen-cong-nhan-luong-tot</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1834/tuyen-cong-nhan-luong-tot</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1833/tuyen-lao-ldpt-lam-viec-tai-cong-ty-nuoc-ngoai</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1794/tuyen-dung-tro-giang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1793/tuyen-dung-nhieu-vi-tri</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1756/ky-su-giam-sat-trien-khai-thi-cong-cong-trinh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1726/tuyen-dai-pho-may-truong-sy-quan-boong-sy-quan-may</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1725/tuyen-dai-pho-may-truong-sy-quan-boong-sy-quan-may</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1724/tuyen-dai-pho-may-truong-sy-quan-boong-sy-quan-may</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1720/tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1719/fpt-hai-phong-tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1632/tuyen-lao-dong-pho-thong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1628/tuyen-dung-nhan-vien-van-hanh-may-kiem-giao-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1627/tuyen-lao-dong-pho-thong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1626/tuyen-dung-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1625/nhan-vien-van-hanh-may-kiem-giao-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1624/tuyen-dung-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1623/tuyen-gap-nhan-vien-phat-trien-thi-truong-cong-tac-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1622/tuyen-gap-02-nhan-vien-phat-trien-thi-truong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1620/nhan-vien-phat-trien-thi-truong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1619/tuyen-gap-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1448/can-tuyen-nhan-vien-ky-thuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1367/nhan-vien-cham-soc-khach-hang-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1365/tuyen-dung-nhan-vien-cham-soc-khach-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1362/tuyen-dung-nhan-vien-tu-van-cham-soc-khach-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1319/tuyen-dung-nhan-vien-nhom-phan-tich-thuc-nghiem-cua-trung-tam-nghien-cuu-va-phat-trien</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1318/phien-dich-tieng-nhat-cho-trung-tam-nghien-cuu-va-phat-trien</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1317/tuyen-dung-nhan-vien-nhom-phan-tich-thuc-nghiem-cua-trung-tam-nghien-cuu-va-phat-trien</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1316/tuyen-dung-nhan-vien-nhom-thuc-nghiem-trung-tam-nghien-cuu--phat-trien</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1274/tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1273/tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1272/nhan-vien-kinh-doanh-phat-trien-thi-truong-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1271/tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1270/tuyen-cong-nhan-co-khi-cong-nghe</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1269/tuyen-ky-su-dien-dieu-khien</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1268/tuyen-chuyen-vien-hanh-chinh-tong-hop</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1258/nhan-vien-qc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1257/tuyen-dung-quan-ly-xuong-gia-cong-co-khi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1256/nhan-vien-qc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1255/tuyen-dung-quan-ly-xuong-gia-cong-co-khi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1250/tuyen-ke-toan-accounting-assistant-manager</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1205/tuyen-dung-cong-nhan-ky-thuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1204/tuyen-dung-cong-nhan-luong-12-trieu-thang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1200/tuyen-dung-cong-nhan-tap-doan-than-khoang-san-viet-nam-luong-12trieu-thang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1099/tro-ly-phong-kinh-doanh-tieng-trung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1098/tro-ly-phien-dich-tieng-trung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1097/tro-ly-phien-dich-tieng-trung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1096/tro-ly-phien-dich-tieng-trung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1095/tro-ly-phien-dich-tieng-trung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1094/tro-ly-phien-dich-tieng-trung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1030/tuyen-dung-nhan-vien-xuat-nhap-khau-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1029/tuyen-nhan-vien-xuat-nhap-khau-lam-viec-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1028/tuyen-nhan-vien-xuat-nhap-khau-lam-viec-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/1027/-tin-thieu-thong-tin-_tuyen-nhan-vien-xuat-nhap-khau-lam-viec-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/981/qc-inspector-shoe-industry-nhan-vien-kiem-hang-giay-da</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/969/nhan-vien-tu-van-tin-dung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/968/nhan-vien-tu-van-tin-dung_-tin-da-co-tren-website</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/967/nhan-vien-tu-van-tin-dung_tin-da-co-tren-website</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/966/nhan-vien-tu-van-tin-dung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/965/nhan-vien-tu-van-tin-dung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/964/nhan-vien-tu-van-tin-dung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/963/tuyen-03-nhan-vien-kinh-doanh-otc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/962/tuyen-03-nhan-vien-kinh-doanh-otc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/961/tuyen-ke-toan-ban-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/960/tuyen-nhan-vien-kinh-doanh-otc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/917/tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/916/nhan-vien-lap-trinh-php</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/915/nhan-vien-lap-trinh-php</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/914/nhan-vien-lap-trinh-php</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/913/tuyen-dung-5-nhan-vien-kinh-doanh-lam-viec-tai-cong-ty-vinaweb-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/912/tuyen-nam-qc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/911/tuyen-nv-ke-toankho-nv-quan-ly-chat-luong-nv-quan-ly-qh-khach-hang-nv-ke-hoach-san-xuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/910/tuyen-nv-ke-toankho-nv-quan-ly-chat-luong-nv-quan-ly-qh-khach-hang-nv-ke-hoach-san-xuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/909/tuyen-nhan-vien-ke-hoach-san-xuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/908/nhan-vien-ke-hoach-san-xuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/907/nhan-vien-ke-hoach-san-xuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/906/nhan-vien-hanh-chinh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/905/nhan-vien-ke-hoach-san-xuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/903/ke-toan-kho</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/902/tuyen-thu-kho</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/898/nhan-vien-san-xuat-gia-cong-ong-gio</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/897/nhan-vien-ki-thuat-dien-lanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/825/tuyen-nhan-vien-van-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/799/meo-meo-meo-thong-bao-can-tuyen-5-con-meo-biet-cay-tien-day-a</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/785/tuyen-nhan-vien-ke-toan-tong-hop</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/767/tuyen-nhan-vien-thu-hoi-no-truc-tiep-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/556/tuyen-nhan-vien-telesales</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/555/tuyen-nhan-vien-telesales</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/552/tuyen-nhan-vien-telesales</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/549/nhan-vien-kinh-doanh-phat-trien-thi-truong-lam-viec-tai-van-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/548/nhan-vien-van-phong-khai-thac-thi-truong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/547/tuyen-nhan-vien-lap-trinh-web-asp-net-c</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/545/tuyen-nhan-vien-lap-trinh-web-net</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/498/tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/497/tuyen-nhan-vien-kinh-doanh-thang-may</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/496/tuyen-nhan-vien-kinh-doanh-thang-may</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/495/tuyen-nhan-vien-kinh-doanh-thang-may</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/494/tuyen-nhan-vien-kinh-doanh-thang-may</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/493/tuyen-nhan-vien-ky-thuat-dien-dien-tu-thang-may</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/489/nhan-vien-ban-hang-thoi-trang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/469/tuyen-truong-phong-kinh-doanh-internet-ho-gia-dinh-luong-cao-lam-viec-tai-hai-phong-eoc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/468/chuyen-vien-kinh-doanh-dich-vu-truyen-so-lieu-tsl</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/467/tuyen-dung-nhan-vien-kinh-doanh-internet-ho-gia-dinh-eoc</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/466/tuyen-gap-chuyen-vien-kinh-doanh-dich-vu-data-center-odc-muc-luong-hap-dan-lam-viec-tai-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/431/nhan-vien-hanh-chinh-tong-hop</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/429/tuyen-dung-cu-nhan-kinh-te-cong-nhan-ky-thuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/428/tuyen-dung-cu-nhan-kinh-te-cong-nhan-ky-thuat</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/427/tuyen-dung-ky-su-hoa-dau-ky-su-dien-dieu-khien-ky-su-co-khi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/416/tuyen-ctv-tu-van-tai-chinh-khoi-ngan-hang-tieu-dung</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/414/tuyen-nhan-vien-phuc-vu-internetgame-75-luong-khanh-thien-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/412/tuyen-nhan-vien-phuc-vu-internetgame-75-luong-khanh-thien-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/411/tuyen-nhan-vien-phuc-vu-internetgame-75-luong-khanh-thien-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/406/tuyen-nhan-vien-phuc-vu-internetgame-75-luong-khanh-thien-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/405/tuyen-nhan-vien-pha-chenau-nuong--cong-ty-tnhh-tm-the-thao--giai-tri-trang-anh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/404/tuyen-nhan-vien-pha-chenau-nuong--cong-ty-tnhh-tm-the-thao--giai-tri-trang-anh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/403/tuyen-nhan-vien-pha-chenau-nuong--cong-ty-tnhh-tm-the-thao--giai-tri-trang-anh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/402/tuyen-nhan-vien-phuc-vu-internetgame-75-luong-khanh-thien-hai-phong</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/399/tuyen-nhan-vien-pha-che-gom-nau-nuong-cong-ty-giai-tri-trang-anh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/398/tuyen-nhan-vien-pha-che-gom-nau-nuong-cong-ty-giai-tri-trang-anh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/312/tuyen-cong-tac-vien-phat-trien-khach-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/311/tuyen-cong-tac-vien-phat-trien-khach-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/264/can-tuyen-nhan-vien-kinh-doanh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/263/ky-thuat-vien-ung-cuu-va-xu-ly-su-co-cpe</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/255/sale--marketing</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/254/quan-ly-nha-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/253/nhan-vien-thu-ngan-ca-toi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/252/nhan-vien-thu-ngan-ca-toi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/251/nhan-vien-thu-ngan-ca-toi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/249/nhan-vien-thu-ngan-hanh-chinh-nhan-su</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/238/baoviet-bank-hai-phong-tuyen-chuyen-vien-qhkh-tro-ly-qhkh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/237/baoviet-bank-hai-phong-tuyen-chuyen-vien-qhkh-tro-ly-qhkh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/236/baoviet-bank-hai-phong-tuyen-chuyen-vien-qhkh-tro-ly-qhkh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/235/tuyen-dung-chuyen-vien-qhkh-tro-ly-qhkh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/234/tuyen-dung-chuyen-vien-quan-he-khach-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/233/tuyen-dung-chuyen-vien-quan-he-khach-hang</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/230/tuyen-tu-van-tuyen-sinh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/207/thiet-bi-cong-nghiep-va-tu-dong-hoa-bac-viet-can-tuyen</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/205/tuyen-nhan-vien-marketing-online</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/172/ke-toan-truong-don-vi-thanh-vien-viconship</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/150/tuyen-nhan-vien-marketing-online-khong-yeu-cau-kinh-nghiem-duoc-dao-tao-mien-phi</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/149/tuyen-nhan-vien-marketing-online-khong-yeu-cau-kinh-nghiem</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/148/nhan-vien-marketing-online</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/147/nhan-vien-marketing-online</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/146/www-amimedia-vn</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/143/tuyen-nhan-vien-nganh-may-mac-nhieu-vi-tri</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/142/tuyen-nhan-vien-nganh-may-mac-nhieu-vi-tri</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/137/tuyen-nhan-vien-hanh-chinh</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/108/can-tuyen-nhan-vien-ve-sinh-bep</t>
+  </si>
+  <si>
+    <t>https://www.tuyendunghaiphong.vn/viec-lam/106/can-tuyen-nhan-vien-ve-sinh-bep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -68,7 +919,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,15 +927,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -366,40 +1251,1725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="O237" sqref="O237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+    <row r="5" spans="1:1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="314.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="314.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="371.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="285.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="285.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="243" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="243" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="285.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="271.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{6684A32D-F597-4BD2-B4FD-24977ED2B50B}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9A00CD26-94CF-47D2-81C9-BD7AD1B18AB6}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{EF86E0F5-54C4-403A-9C80-2400123ACD7C}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{4EB67622-9C40-4F29-B2A7-D05E3037DCBD}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{7C9B0268-95BF-453B-B7AB-E1013B9D59C2}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{4F210472-B654-46E2-A8B5-0B2B0D863D57}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{8BC9734A-04A8-43B3-84AC-BD0F2EBDFC86}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{36AE794D-C586-4A68-800B-7DEC53BE03E7}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{CF4DF8F4-46EB-4FDC-B34B-612C487EB13B}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{D6FA41FD-F752-49F6-8EA9-68230B79E721}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{91906677-5F4B-4A88-ACA6-038DF428827B}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{AF1A55FE-6517-4742-AF7A-B32333C2B5D4}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{D7738C28-118B-4840-8648-B1AABAE5E57A}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{7D11D49F-4525-44AC-ADEB-18C33E445850}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{9B8C683D-18DE-41C9-A9FC-2B262B40B480}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{877F45D5-5FFC-4C65-9E21-17BCC8916458}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{430041A2-1220-480D-A26C-1E750913D0CE}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{03FE3F96-B848-48A4-9923-84038AED313C}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{10301BAB-E6B7-4794-87AA-AD918E444226}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{A646D47F-6C68-4F17-8327-E6A0E65B4661}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{465488D4-52CA-48DC-8F2F-F22475A5F516}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{1B3F5E14-7B56-480C-8985-FD02A8EFFB38}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{3B265EE1-8F93-43C6-B68D-76C5A886A98E}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{24081B10-17E5-4AEE-95FD-1F8AAEA86367}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{CA042CA9-4CCB-4868-9EA6-702CDFBD3BD3}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{3D9DE0B6-AB1C-4F89-AEE2-178CC544978F}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{EEEDEA30-593F-460E-8E31-59E51AB36C46}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{7294CC40-0DF0-420B-9E76-8B07F2FB57B8}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{A9D0AC6A-82D9-4D87-AF3A-360B77A7A8F9}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{062D5515-6DE9-4E7B-A3E3-CFF2941D851F}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{74562AEB-2DF9-4613-8C00-B9419381D718}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{8C5843FC-B0E0-408A-A801-7E932A263C6F}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{135EFCEC-15A2-4F4C-A29D-9DF9097ACA25}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{7E597D1D-1A22-4F9B-BC32-9424781C729B}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{EB801DB0-73E6-4E5A-8EC9-7FF226E46B9B}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{46CACCA7-C459-47DA-92B1-29E9EC6779B8}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{C0CBBC92-C9F8-40F8-9D43-5F4627E514EB}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{EF1F7BC8-1787-4B9D-A712-CD0E48552C66}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{5BECB981-1A2E-4BA9-B31B-943906F66570}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{3CE41309-B7CA-4DDB-B308-39221A94DE63}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{0F64EBDF-7115-41FA-AB08-BF511C07FC9A}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{F1A9AB8A-36B4-475D-9FDE-0D1DC3C720F5}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{AA63EF9F-C1FC-42C8-A926-D68658A63769}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{33367671-41ED-4001-8CB4-8DBBCC437FB5}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{8257D7CC-0D6F-400E-A752-1B05696999F1}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{4979186D-7806-41C7-BD91-03363DAAAC78}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{E33E0ED4-1423-4BCE-8AB7-50C50D28BF6C}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{CC03FE1D-7205-478F-BEF8-D9E31C877B3A}"/>
+    <hyperlink ref="A49" r:id="rId48" xr:uid="{0A994AF5-280B-4144-8156-FB6E583408A0}"/>
+    <hyperlink ref="A50" r:id="rId49" xr:uid="{45E9FC4A-BC3D-4318-A9A3-851B26DA8041}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{1295A6D7-FC05-4CA1-A4E0-EFEE73FBB408}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{CC549368-5AD6-49A9-9EA5-08629F0018A3}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{A52A6F47-7794-4E9D-96DC-3C5BABC4E7A1}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{207B91FA-868E-4C74-AD52-41A9D5BE4271}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{AB27284C-6508-4189-BE0D-9B3AE2888318}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{AA6F9448-8F04-4CF6-BF14-BED9B489F2D3}"/>
+    <hyperlink ref="A57" r:id="rId56" xr:uid="{0A208DCD-C729-475A-A509-D85B63E6C221}"/>
+    <hyperlink ref="A58" r:id="rId57" xr:uid="{BD6B2EF8-4528-4C4E-BED9-9C66B2743501}"/>
+    <hyperlink ref="A59" r:id="rId58" xr:uid="{FCE3516A-2A4E-4449-8D5D-F76CD4504A38}"/>
+    <hyperlink ref="A60" r:id="rId59" xr:uid="{20096B7F-D702-4ED6-B31E-7B0E7DEBE0BC}"/>
+    <hyperlink ref="A61" r:id="rId60" xr:uid="{592C538A-73A4-4D99-B844-8BD16CC7C098}"/>
+    <hyperlink ref="A62" r:id="rId61" xr:uid="{8D43AED5-50CC-4907-9646-E594245A7EEB}"/>
+    <hyperlink ref="A63" r:id="rId62" xr:uid="{205CEF7C-2A96-4088-9CC0-255937430D70}"/>
+    <hyperlink ref="A64" r:id="rId63" xr:uid="{413581E4-0B59-4C5C-9A34-7967BD9C9AAE}"/>
+    <hyperlink ref="A65" r:id="rId64" xr:uid="{BCAB5CBD-BDF2-451E-A83B-7980501EE14F}"/>
+    <hyperlink ref="A66" r:id="rId65" xr:uid="{70881956-AA49-4D64-A7D4-490ECC48E576}"/>
+    <hyperlink ref="A67" r:id="rId66" xr:uid="{BAEF03A1-F760-41E0-823B-8ACFA8C2B890}"/>
+    <hyperlink ref="A68" r:id="rId67" xr:uid="{A4D39E7F-4F37-49C3-8B5C-C6D9AC4CF225}"/>
+    <hyperlink ref="A69" r:id="rId68" xr:uid="{67B0C41C-3825-4D33-A3F6-2B741948B831}"/>
+    <hyperlink ref="A70" r:id="rId69" xr:uid="{D522B45A-80BA-4C57-B0BC-52F5A530B959}"/>
+    <hyperlink ref="A71" r:id="rId70" xr:uid="{3150A192-EE80-42F1-80FF-AD8483DB8034}"/>
+    <hyperlink ref="A72" r:id="rId71" xr:uid="{29081C64-81B5-4567-8C5D-B1A206358782}"/>
+    <hyperlink ref="A73" r:id="rId72" xr:uid="{E6F916A7-42BA-475B-A2ED-A9D8A891693F}"/>
+    <hyperlink ref="A74" r:id="rId73" xr:uid="{343144C6-A6C8-4AA5-99F5-8F7B9DC96279}"/>
+    <hyperlink ref="A75" r:id="rId74" xr:uid="{F453CDAE-20CE-4E76-9F91-ABFB3B2E7533}"/>
+    <hyperlink ref="A76" r:id="rId75" xr:uid="{8515B601-142C-49B6-B7BA-ED0976D23687}"/>
+    <hyperlink ref="A77" r:id="rId76" xr:uid="{0B1447FD-9425-4023-BC25-7E3A240E7932}"/>
+    <hyperlink ref="A78" r:id="rId77" xr:uid="{54537AA3-0C8F-45FE-9A94-1DA6DB2C9ADB}"/>
+    <hyperlink ref="A79" r:id="rId78" xr:uid="{F9D57678-521F-4710-8068-31A687D35A5F}"/>
+    <hyperlink ref="A80" r:id="rId79" xr:uid="{9688DF7F-3D7C-4E5D-9E15-4480C2050D8B}"/>
+    <hyperlink ref="A81" r:id="rId80" xr:uid="{4138DE22-DF37-47A8-B383-D5D825451F6A}"/>
+    <hyperlink ref="A82" r:id="rId81" xr:uid="{96B64E99-FECC-49FE-BE6E-BF4952F79A52}"/>
+    <hyperlink ref="A83" r:id="rId82" xr:uid="{9057C129-AB9F-4523-B6CC-204C589F1253}"/>
+    <hyperlink ref="A84" r:id="rId83" xr:uid="{AF21075B-DBB8-47F6-8CB2-3677FF8A1B5A}"/>
+    <hyperlink ref="A85" r:id="rId84" xr:uid="{C55EC943-900C-46CA-A9FE-3A55B99FD651}"/>
+    <hyperlink ref="A86" r:id="rId85" xr:uid="{9BB5C35B-AD2E-4FAD-AF43-373C301D4C13}"/>
+    <hyperlink ref="A87" r:id="rId86" xr:uid="{D2B6A0DD-A8AA-49BD-B2EC-D6FF63CF957C}"/>
+    <hyperlink ref="A88" r:id="rId87" xr:uid="{9CCED343-5C1F-4F7A-B2CB-07DF48289FE7}"/>
+    <hyperlink ref="A89" r:id="rId88" xr:uid="{9AD6B015-B095-40AC-B5D6-98B900316EB0}"/>
+    <hyperlink ref="A90" r:id="rId89" xr:uid="{F2D7BB09-997C-49C1-8ADB-EFEEEF0853DA}"/>
+    <hyperlink ref="A91" r:id="rId90" xr:uid="{6F462A60-5362-4559-8C66-EA52565C30DA}"/>
+    <hyperlink ref="A92" r:id="rId91" xr:uid="{6AF37B4C-FF3B-46B9-A3E1-90FFFF90CB4F}"/>
+    <hyperlink ref="A93" r:id="rId92" xr:uid="{8318F2DA-8E9A-489C-8AA3-DBCAA1B99C06}"/>
+    <hyperlink ref="A94" r:id="rId93" xr:uid="{C48ED05F-8656-4D60-94C9-FD4FDB4948BF}"/>
+    <hyperlink ref="A95" r:id="rId94" xr:uid="{59BD4666-5CD2-4B5E-87EA-816B06BBBC84}"/>
+    <hyperlink ref="A96" r:id="rId95" xr:uid="{E1DCB95C-83E4-4D0D-8489-D5E38DBCCF4B}"/>
+    <hyperlink ref="A97" r:id="rId96" xr:uid="{71682E94-1E97-40CD-97D3-C50B987E2CFE}"/>
+    <hyperlink ref="A98" r:id="rId97" xr:uid="{B780538B-F890-4F9E-95E1-8F20228BA249}"/>
+    <hyperlink ref="A99" r:id="rId98" xr:uid="{C74E5E0F-47CE-48F9-81FD-3F904FECB928}"/>
+    <hyperlink ref="A100" r:id="rId99" xr:uid="{5902CFDF-1841-4617-BA97-E582A369844A}"/>
+    <hyperlink ref="A101" r:id="rId100" xr:uid="{130AE6F8-29C0-4623-BFC7-550E5EAA6F9B}"/>
+    <hyperlink ref="A102" r:id="rId101" xr:uid="{E3EB0F3A-830F-4B2B-A956-37DB92852981}"/>
+    <hyperlink ref="A103" r:id="rId102" xr:uid="{B58F9AD7-2F56-4DAD-A59B-242C181D6B61}"/>
+    <hyperlink ref="A104" r:id="rId103" xr:uid="{F373C10C-123E-4729-9E52-65CBBA65DD68}"/>
+    <hyperlink ref="A105" r:id="rId104" xr:uid="{F2236D9A-5444-436C-975A-3E4BD25E5EC6}"/>
+    <hyperlink ref="A106" r:id="rId105" xr:uid="{5F716EDE-17D9-4E64-8F7C-695B934103C4}"/>
+    <hyperlink ref="A107" r:id="rId106" xr:uid="{7EEDFAA7-703E-4CE9-8EBF-CB220CAEB5D7}"/>
+    <hyperlink ref="A108" r:id="rId107" xr:uid="{FAE94E6F-14CC-4E55-A437-C064BB7EADCE}"/>
+    <hyperlink ref="A109" r:id="rId108" xr:uid="{550FDA88-D3F8-48C0-BD07-680DC4CC4B25}"/>
+    <hyperlink ref="A110" r:id="rId109" xr:uid="{99FEA026-46C5-4733-B91E-1767CE0A23B1}"/>
+    <hyperlink ref="A111" r:id="rId110" xr:uid="{DE924967-D7F2-4668-954D-9886EDFCA1AC}"/>
+    <hyperlink ref="A112" r:id="rId111" xr:uid="{7C5EF10F-7D4F-46EB-A829-3A31A913D447}"/>
+    <hyperlink ref="A113" r:id="rId112" xr:uid="{84D16DF4-919F-412F-AAD7-DABDD3E2BAB3}"/>
+    <hyperlink ref="A114" r:id="rId113" xr:uid="{47E8386B-0148-40B1-9E68-3364559215A0}"/>
+    <hyperlink ref="A115" r:id="rId114" xr:uid="{CE7D8C33-94AA-400E-827A-B20E134FCC81}"/>
+    <hyperlink ref="A116" r:id="rId115" xr:uid="{F031DC6C-DA09-49A8-AB41-B00C5038BA23}"/>
+    <hyperlink ref="A117" r:id="rId116" xr:uid="{5353D0EC-3D9A-476F-AF2B-35AEE3FC5631}"/>
+    <hyperlink ref="A118" r:id="rId117" xr:uid="{9403FF7D-772C-4729-8850-545B47F17F37}"/>
+    <hyperlink ref="A119" r:id="rId118" xr:uid="{1B5D06D5-FC8A-48AC-A942-04655C87F17B}"/>
+    <hyperlink ref="A120" r:id="rId119" xr:uid="{112E25FC-6D93-45A6-9057-012797342970}"/>
+    <hyperlink ref="A121" r:id="rId120" xr:uid="{7A3516EC-9790-4E14-B7C6-FC8869E36D13}"/>
+    <hyperlink ref="A122" r:id="rId121" xr:uid="{FA555429-9F10-4D10-AE71-D178120FED65}"/>
+    <hyperlink ref="A123" r:id="rId122" xr:uid="{365C77F6-EA69-42B7-A1D4-32DC16721224}"/>
+    <hyperlink ref="A124" r:id="rId123" xr:uid="{26494BD2-4FCF-4652-AEDF-8B681554C2C0}"/>
+    <hyperlink ref="A125" r:id="rId124" xr:uid="{34A30448-7E67-4F7A-BF9E-F1AA7464F564}"/>
+    <hyperlink ref="A126" r:id="rId125" xr:uid="{CEA25B15-D707-4632-A384-706EB6D3295E}"/>
+    <hyperlink ref="A127" r:id="rId126" xr:uid="{3B34E664-23C7-4060-9C42-21362D185A28}"/>
+    <hyperlink ref="A128" r:id="rId127" xr:uid="{CB4EC258-5507-48AE-806C-F0DCF90797C7}"/>
+    <hyperlink ref="A129" r:id="rId128" xr:uid="{877E3F9A-14FD-4E31-AFCD-4C904D6A90D3}"/>
+    <hyperlink ref="A130" r:id="rId129" xr:uid="{2D7E01F5-218C-43A7-8F21-AF1E68A17BE0}"/>
+    <hyperlink ref="A131" r:id="rId130" xr:uid="{B873DAA7-DD55-4CAD-BCEC-BEBB5CE8D659}"/>
+    <hyperlink ref="A132" r:id="rId131" xr:uid="{6154430D-BBB1-41C5-9D02-1F571FAEB7B9}"/>
+    <hyperlink ref="A133" r:id="rId132" xr:uid="{9926D5F3-B8D9-450E-832E-04550C3051AE}"/>
+    <hyperlink ref="A134" r:id="rId133" xr:uid="{850B9AF5-C2A1-4AE5-A269-AE78BD33254C}"/>
+    <hyperlink ref="A135" r:id="rId134" xr:uid="{4391B4E9-B5E1-4DDD-A850-5A2B6CB3F99A}"/>
+    <hyperlink ref="A136" r:id="rId135" xr:uid="{419E33F8-FF38-4677-A042-B52BEB7A7DBF}"/>
+    <hyperlink ref="A137" r:id="rId136" xr:uid="{16A0783D-C0E2-45AB-8148-F87704FC4D1B}"/>
+    <hyperlink ref="A138" r:id="rId137" xr:uid="{9A94DE5A-A93E-4D25-B077-ECC168D94967}"/>
+    <hyperlink ref="A139" r:id="rId138" xr:uid="{1F26CBBB-6F52-4A75-A5AA-581DD7883279}"/>
+    <hyperlink ref="A140" r:id="rId139" xr:uid="{0F03BA78-594F-4408-A937-2ACB191C4C65}"/>
+    <hyperlink ref="A141" r:id="rId140" xr:uid="{768C9C4B-E40F-41F4-A959-96065771C962}"/>
+    <hyperlink ref="A142" r:id="rId141" xr:uid="{42921973-01AA-4E2C-B880-49B8C671A090}"/>
+    <hyperlink ref="A143" r:id="rId142" xr:uid="{0D11AE7D-1144-4090-AB3D-C0B2124023D9}"/>
+    <hyperlink ref="A144" r:id="rId143" xr:uid="{43456100-1EB5-436F-A3FC-B13F5E7D4A0D}"/>
+    <hyperlink ref="A145" r:id="rId144" xr:uid="{484AD93B-9F50-4A0A-8A69-2CD4CE5F875A}"/>
+    <hyperlink ref="A146" r:id="rId145" xr:uid="{5A82B326-92D4-4A69-98D1-4E645AF66E2E}"/>
+    <hyperlink ref="A147" r:id="rId146" xr:uid="{D2C3D7DE-3FBB-4AB4-A994-2656E6237E1F}"/>
+    <hyperlink ref="A148" r:id="rId147" xr:uid="{0CEC827D-3E3F-4774-A502-9CF8348C11AE}"/>
+    <hyperlink ref="A149" r:id="rId148" xr:uid="{F77E863D-8708-4764-9D7C-4C2D2B0C0D1A}"/>
+    <hyperlink ref="A150" r:id="rId149" xr:uid="{B8BD84E0-102D-4230-A3D0-FFC9E9CE2BC4}"/>
+    <hyperlink ref="A151" r:id="rId150" xr:uid="{45C21BD0-22FA-4974-9923-185DAE6973C0}"/>
+    <hyperlink ref="A152" r:id="rId151" xr:uid="{578D4106-DAC1-4040-8186-A362908D6856}"/>
+    <hyperlink ref="A153" r:id="rId152" xr:uid="{9F74E3C7-1353-412A-BE2D-F2C7CF0B8DEF}"/>
+    <hyperlink ref="A154" r:id="rId153" xr:uid="{6BAA54D3-A821-4AFC-BD22-00BD9C0CB52F}"/>
+    <hyperlink ref="A155" r:id="rId154" xr:uid="{C9845A5B-AA9B-4EB1-88F2-C15FAD9D747D}"/>
+    <hyperlink ref="A156" r:id="rId155" xr:uid="{928AFC15-602B-47B4-AC7C-B1FF9DD59F40}"/>
+    <hyperlink ref="A157" r:id="rId156" xr:uid="{6C226976-3334-4F78-8FF3-E154D505DFD2}"/>
+    <hyperlink ref="A158" r:id="rId157" xr:uid="{92D7B4AC-99E8-4614-80E6-1928E0A7EFD4}"/>
+    <hyperlink ref="A159" r:id="rId158" xr:uid="{BEDEB7BE-09A5-47B3-88CD-6EB62571357C}"/>
+    <hyperlink ref="A160" r:id="rId159" xr:uid="{F60C0640-4782-4D8A-81B9-A2FDB35CD6DF}"/>
+    <hyperlink ref="A161" r:id="rId160" xr:uid="{FFBFA787-7C5F-4FC2-B2E5-42771E78908F}"/>
+    <hyperlink ref="A162" r:id="rId161" xr:uid="{BE564BD9-3E5D-495E-B4AA-86D8A81293E3}"/>
+    <hyperlink ref="A163" r:id="rId162" xr:uid="{68E70BB8-13C7-46B9-98D3-5A178D2A1806}"/>
+    <hyperlink ref="A164" r:id="rId163" xr:uid="{BE493B37-0006-4BBD-8CCF-9DCDB91DEF8A}"/>
+    <hyperlink ref="A165" r:id="rId164" xr:uid="{0CE2461B-BB7C-42BD-874D-4A57ECF04457}"/>
+    <hyperlink ref="A166" r:id="rId165" xr:uid="{E3D081A9-F6EC-420C-B02B-19FFB116CCC5}"/>
+    <hyperlink ref="A167" r:id="rId166" xr:uid="{B1D3B7E1-CF07-4AF6-90EC-6785981963A2}"/>
+    <hyperlink ref="A168" r:id="rId167" xr:uid="{8F163E10-A2FC-4814-91E8-B001BA3F6B77}"/>
+    <hyperlink ref="A169" r:id="rId168" xr:uid="{3FAB187A-684E-4F82-A330-9F6BE733FAE7}"/>
+    <hyperlink ref="A170" r:id="rId169" xr:uid="{DD2E4D8D-7227-45DB-8D4C-E8C92B0A46D3}"/>
+    <hyperlink ref="A171" r:id="rId170" xr:uid="{9E6618F5-D9A8-4865-80D5-A0636603FFD1}"/>
+    <hyperlink ref="A172" r:id="rId171" xr:uid="{3A4D800A-4CCB-4D0A-9D8C-D9A616430D5D}"/>
+    <hyperlink ref="A173" r:id="rId172" xr:uid="{9C4C5525-5716-4E89-BB03-CBBE791C6287}"/>
+    <hyperlink ref="A174" r:id="rId173" xr:uid="{2AE874CD-A61D-4FAD-B355-32ECFF62506D}"/>
+    <hyperlink ref="A175" r:id="rId174" xr:uid="{16450FD2-90D6-423D-8576-DAC38BE4A2FC}"/>
+    <hyperlink ref="A176" r:id="rId175" xr:uid="{F2EA9FE5-BCC7-4003-BF2D-4A5572BC51D2}"/>
+    <hyperlink ref="A177" r:id="rId176" xr:uid="{9EB2B365-3A07-483D-BFE4-72BFA1475FB9}"/>
+    <hyperlink ref="A178" r:id="rId177" xr:uid="{A460A832-46FB-47BB-8765-C099D1E3A634}"/>
+    <hyperlink ref="A179" r:id="rId178" xr:uid="{1C567D57-F672-4141-9B6D-139BB5D4087D}"/>
+    <hyperlink ref="A180" r:id="rId179" xr:uid="{90745B3D-D532-441E-9399-3B15F2D9A2B0}"/>
+    <hyperlink ref="A181" r:id="rId180" xr:uid="{A77E6B09-8030-473E-B5A1-2ED7542138BD}"/>
+    <hyperlink ref="A182" r:id="rId181" xr:uid="{A31A5516-AF58-48D2-AEC8-09A0BF50D337}"/>
+    <hyperlink ref="A183" r:id="rId182" xr:uid="{FDC6E879-CED9-47F9-A1AC-F3809ACB8BD0}"/>
+    <hyperlink ref="A184" r:id="rId183" xr:uid="{641E637A-C264-472F-931B-3C2B84957AC6}"/>
+    <hyperlink ref="A185" r:id="rId184" xr:uid="{9CB8BF39-DA96-4E8C-842B-4E3161D056B1}"/>
+    <hyperlink ref="A186" r:id="rId185" xr:uid="{A2A79B7F-5B97-4207-A291-C61FCC5304DD}"/>
+    <hyperlink ref="A187" r:id="rId186" xr:uid="{5537B4AB-47C7-4A55-8309-093E60370F09}"/>
+    <hyperlink ref="A188" r:id="rId187" xr:uid="{C1E00C91-E0FF-4E81-A9C2-9DB1A4C07167}"/>
+    <hyperlink ref="A189" r:id="rId188" xr:uid="{A8265716-51CD-414F-9AF6-665CEEA02A6C}"/>
+    <hyperlink ref="A190" r:id="rId189" xr:uid="{3D1674FB-8F01-4768-A21D-79776A91A120}"/>
+    <hyperlink ref="A191" r:id="rId190" xr:uid="{82762342-BB8B-4E47-BCE3-E86851D0DC20}"/>
+    <hyperlink ref="A192" r:id="rId191" xr:uid="{FA127EA5-6A36-4DEE-AC99-BB0FFD47E383}"/>
+    <hyperlink ref="A193" r:id="rId192" xr:uid="{48A382AA-20BB-4247-8ED4-C40CFEAF6CC7}"/>
+    <hyperlink ref="A194" r:id="rId193" xr:uid="{BA8A99C8-5F57-4BC1-BBAD-8B484E750A19}"/>
+    <hyperlink ref="A195" r:id="rId194" xr:uid="{CD87F0AB-20A1-4858-B46B-9B1D422B013D}"/>
+    <hyperlink ref="A196" r:id="rId195" xr:uid="{2E9FB063-91E8-4607-AF85-4F38960977E8}"/>
+    <hyperlink ref="A197" r:id="rId196" xr:uid="{C3A33D62-2FA3-4F02-BF44-8127D3AC1DC5}"/>
+    <hyperlink ref="A198" r:id="rId197" xr:uid="{6059D205-D108-405F-94F0-4ABC4E0DAF66}"/>
+    <hyperlink ref="A199" r:id="rId198" xr:uid="{98B8E82A-77C7-4E45-80B2-40015D9E4E8E}"/>
+    <hyperlink ref="A200" r:id="rId199" xr:uid="{1AC86611-A93A-41EB-9D3D-13F368E3BFD8}"/>
+    <hyperlink ref="A201" r:id="rId200" xr:uid="{8F867BDB-E045-4FDD-B33D-ADFC577361BE}"/>
+    <hyperlink ref="A202" r:id="rId201" xr:uid="{9116A700-55B1-4AC7-B719-09B8B39429DC}"/>
+    <hyperlink ref="A203" r:id="rId202" xr:uid="{7291EE22-A952-425B-B894-E50E87FE6784}"/>
+    <hyperlink ref="A204" r:id="rId203" xr:uid="{D0013F7D-E986-4268-A4D8-A337B6BA8855}"/>
+    <hyperlink ref="A205" r:id="rId204" xr:uid="{298347DF-BA6F-4297-913A-ABA83DF26586}"/>
+    <hyperlink ref="A206" r:id="rId205" xr:uid="{0EEB8177-68F9-4AC4-8FDB-C8A1752C6AB8}"/>
+    <hyperlink ref="A207" r:id="rId206" xr:uid="{8C3838E0-72FA-4BC3-BEB0-B4940BE8F500}"/>
+    <hyperlink ref="A208" r:id="rId207" xr:uid="{D9A7413B-31AF-4AF3-B9B1-E5FD9872FDF0}"/>
+    <hyperlink ref="A209" r:id="rId208" xr:uid="{59BCD7E5-5469-411A-89D4-9DBDC73597F1}"/>
+    <hyperlink ref="A210" r:id="rId209" xr:uid="{25AF4AF3-A7FA-4517-8928-B63873D1B13E}"/>
+    <hyperlink ref="A211" r:id="rId210" xr:uid="{511F12A4-0683-4BFD-8AA7-809570294A02}"/>
+    <hyperlink ref="A212" r:id="rId211" xr:uid="{50AF086F-EE65-4281-A605-799FD20A2260}"/>
+    <hyperlink ref="A213" r:id="rId212" xr:uid="{5FBB7BD4-2688-4C59-B3E9-92973D4C6578}"/>
+    <hyperlink ref="A214" r:id="rId213" xr:uid="{15A50C35-1D24-4767-8EE8-B17D9B9044C7}"/>
+    <hyperlink ref="A215" r:id="rId214" xr:uid="{7247F9FF-00F5-4A7D-AE07-9972C0D13C65}"/>
+    <hyperlink ref="A216" r:id="rId215" xr:uid="{269F3644-EBFE-40C8-B4E3-114DAB117C6C}"/>
+    <hyperlink ref="A217" r:id="rId216" xr:uid="{C3D4C4EB-D10F-46A7-AE15-D95D7DC2AD24}"/>
+    <hyperlink ref="A218" r:id="rId217" xr:uid="{25C680EF-2832-4E8B-93B9-B86DFD0EED7A}"/>
+    <hyperlink ref="A219" r:id="rId218" xr:uid="{887FFCED-BEC1-4EDE-AA4F-8A56A55786C6}"/>
+    <hyperlink ref="A220" r:id="rId219" xr:uid="{838D62DB-4B03-4289-B27E-12EA7A1B5BDF}"/>
+    <hyperlink ref="A221" r:id="rId220" xr:uid="{8E7B1779-0DDB-4859-B2A6-2B7827D8BB59}"/>
+    <hyperlink ref="A222" r:id="rId221" xr:uid="{9A6705E6-E646-42D6-867B-78CD130EC9B8}"/>
+    <hyperlink ref="A223" r:id="rId222" xr:uid="{FEBCCB7A-D304-493A-990A-EC9E2148DD12}"/>
+    <hyperlink ref="A224" r:id="rId223" xr:uid="{0BCF6913-8DE5-47DF-953A-3D048632D645}"/>
+    <hyperlink ref="A225" r:id="rId224" xr:uid="{C993CC03-BA3B-4254-8201-4A9367CA1233}"/>
+    <hyperlink ref="A226" r:id="rId225" xr:uid="{00930FA6-C02B-4D5A-87E0-2C4EAEE7281C}"/>
+    <hyperlink ref="A227" r:id="rId226" xr:uid="{8D163720-5F90-4522-9264-B19601CE0BFE}"/>
+    <hyperlink ref="A228" r:id="rId227" xr:uid="{86E0ADB1-2895-4C58-ACD3-A8E216CDC573}"/>
+    <hyperlink ref="A229" r:id="rId228" xr:uid="{4F6025BD-063E-41DE-A564-29AAEA9CAA68}"/>
+    <hyperlink ref="A230" r:id="rId229" xr:uid="{14893376-AF79-42F5-9963-395C17F16E35}"/>
+    <hyperlink ref="A231" r:id="rId230" xr:uid="{B2670793-37C8-41BC-A19A-6CCAEEEF7402}"/>
+    <hyperlink ref="A232" r:id="rId231" xr:uid="{43FD01C2-F2C3-40E6-809D-123D307645D5}"/>
+    <hyperlink ref="A233" r:id="rId232" xr:uid="{0E47F3C9-131E-4F09-8400-2C5A9BCAA95F}"/>
+    <hyperlink ref="A234" r:id="rId233" xr:uid="{9E2F52BC-B83A-440D-9D2E-63BE0C7AC6CF}"/>
+    <hyperlink ref="A235" r:id="rId234" xr:uid="{BBEE2723-DD78-416A-8CED-A0B8930499AF}"/>
+    <hyperlink ref="A236" r:id="rId235" xr:uid="{B6A66D10-9AEF-4EA4-BEAE-7FC1E206FA45}"/>
+    <hyperlink ref="A237" r:id="rId236" xr:uid="{C73CD9C8-8A80-41C8-8823-4E710C0CB4A6}"/>
+    <hyperlink ref="A238" r:id="rId237" xr:uid="{776D8BC7-8AE1-4326-8BDE-72BCE04C5358}"/>
+    <hyperlink ref="A239" r:id="rId238" xr:uid="{5C037D7C-BE48-481D-B2B4-9BA2F165D97E}"/>
+    <hyperlink ref="A240" r:id="rId239" xr:uid="{52F8C898-D12E-47D1-947A-CB7F0472BD22}"/>
+    <hyperlink ref="A241" r:id="rId240" xr:uid="{7ADFEEF7-074A-4155-B436-E38705EAA6B8}"/>
+    <hyperlink ref="A242" r:id="rId241" xr:uid="{11EFF71E-BE69-4672-A95B-111641A426B7}"/>
+    <hyperlink ref="A243" r:id="rId242" xr:uid="{36FD7813-174E-4121-955A-68E2E43C1411}"/>
+    <hyperlink ref="A244" r:id="rId243" xr:uid="{269AB994-90C5-4070-95FC-0FF7937DC795}"/>
+    <hyperlink ref="A245" r:id="rId244" xr:uid="{302743A9-6F12-42C0-9F44-EF897C44377C}"/>
+    <hyperlink ref="A246" r:id="rId245" xr:uid="{1F86311B-40A7-4694-A7EA-D3BF0DAF6E63}"/>
+    <hyperlink ref="A247" r:id="rId246" xr:uid="{68CDBE7C-CB38-4094-B785-F78DB97AA0E7}"/>
+    <hyperlink ref="A248" r:id="rId247" xr:uid="{256B701F-9AF3-465B-892C-0DE281E32570}"/>
+    <hyperlink ref="A249" r:id="rId248" xr:uid="{7433ECDF-2B2E-44E7-89B2-1F2496213D9A}"/>
+    <hyperlink ref="A250" r:id="rId249" xr:uid="{C656904E-065E-47C2-BDE5-DAC88C64EABC}"/>
+    <hyperlink ref="A251" r:id="rId250" xr:uid="{A1171A3A-473F-4E92-B2BC-EC2B0144F61D}"/>
+    <hyperlink ref="A252" r:id="rId251" xr:uid="{CEA08208-D76E-4E8C-AF02-1A68DECFE30E}"/>
+    <hyperlink ref="A253" r:id="rId252" xr:uid="{1E2107A6-350D-4B7E-8BB6-698BAC83E0C9}"/>
+    <hyperlink ref="A254" r:id="rId253" xr:uid="{180C49A7-1358-41ED-B755-4B3A881C384C}"/>
+    <hyperlink ref="A255" r:id="rId254" xr:uid="{E92FEA81-027C-4986-9351-F19DB6D502A1}"/>
+    <hyperlink ref="A256" r:id="rId255" xr:uid="{B998661D-6A57-474F-9EB6-8D50804C4110}"/>
+    <hyperlink ref="A257" r:id="rId256" xr:uid="{D3FAF658-F599-4A61-8B21-D4A5A463F40F}"/>
+    <hyperlink ref="A258" r:id="rId257" xr:uid="{A66D94CE-CC37-48CC-AB36-25B604D527DC}"/>
+    <hyperlink ref="A259" r:id="rId258" xr:uid="{2C879FBE-EA50-4D6A-B3BA-F9EC486D071D}"/>
+    <hyperlink ref="A260" r:id="rId259" xr:uid="{EB69A3AE-321E-44CB-9A68-1D3E59986557}"/>
+    <hyperlink ref="A261" r:id="rId260" xr:uid="{088B13A2-B3A2-4A91-B9A1-AF0E4090B4A6}"/>
+    <hyperlink ref="A262" r:id="rId261" xr:uid="{683C8850-78AE-48F6-AD45-1E7C0612AE12}"/>
+    <hyperlink ref="A263" r:id="rId262" xr:uid="{AC7F7E1B-DD89-48E7-BDD5-60B7E77FDC28}"/>
+    <hyperlink ref="A264" r:id="rId263" xr:uid="{58227B47-EF0E-4D84-91A2-CEEDC7BCB6C9}"/>
+    <hyperlink ref="A265" r:id="rId264" xr:uid="{7F77A6D3-A201-439E-8BAB-856B319587C1}"/>
+    <hyperlink ref="A266" r:id="rId265" xr:uid="{4826B2CC-766E-4786-9236-DD6F0B5D4512}"/>
+    <hyperlink ref="A267" r:id="rId266" xr:uid="{3E71EF04-332B-4C10-9E79-630B7B408A9E}"/>
+    <hyperlink ref="A268" r:id="rId267" xr:uid="{8058F83C-53EC-40CA-83C5-683CB55FFCDC}"/>
+    <hyperlink ref="A269" r:id="rId268" xr:uid="{715DB2C8-F889-4BC7-AE18-99E84D45223C}"/>
+    <hyperlink ref="A270" r:id="rId269" xr:uid="{264CE73E-9C37-4670-8BBE-15192E7CC95F}"/>
+    <hyperlink ref="A271" r:id="rId270" xr:uid="{61D9BB52-88F5-4D3F-B4F7-E7D84F60F55C}"/>
+    <hyperlink ref="A272" r:id="rId271" xr:uid="{C8C4F0EB-DFC4-4B18-85D2-96F2F98E56BB}"/>
+    <hyperlink ref="A273" r:id="rId272" xr:uid="{8C241298-EAEF-4A54-AFB7-EA17D00D2FB4}"/>
+    <hyperlink ref="A274" r:id="rId273" xr:uid="{D02DA6DF-F942-46F2-8DDE-4ECF0C9C5D1A}"/>
+    <hyperlink ref="A275" r:id="rId274" xr:uid="{B98C947E-CC2C-4A1E-BA83-FE1117945DCF}"/>
+    <hyperlink ref="A276" r:id="rId275" xr:uid="{30F91B13-3B11-4563-86C5-2F78E0F8A08F}"/>
+    <hyperlink ref="A277" r:id="rId276" xr:uid="{0EB61800-B02F-4DBB-A864-CFEA34880F82}"/>
+    <hyperlink ref="A278" r:id="rId277" xr:uid="{BD87D662-27A0-438F-978F-6AC4AA0B4E27}"/>
+    <hyperlink ref="A279" r:id="rId278" xr:uid="{10851FB0-8FE1-45E3-83A5-7535052FBA57}"/>
+    <hyperlink ref="A280" r:id="rId279" xr:uid="{D449B86F-FF4C-4937-ADC7-04E0CD5F39A2}"/>
+    <hyperlink ref="A281" r:id="rId280" xr:uid="{826286E5-F83B-4CA3-85BF-429A938DB730}"/>
+    <hyperlink ref="A282" r:id="rId281" xr:uid="{8B61C285-8BEC-4427-807E-6BD20F2BE455}"/>
+    <hyperlink ref="A283" r:id="rId282" xr:uid="{6B00FE2F-DA8D-4C9D-881A-E53062DD4EF3}"/>
+    <hyperlink ref="A284" r:id="rId283" xr:uid="{434CA5E5-1275-4B86-A64E-9A53D21C01F7}"/>
+    <hyperlink ref="A285" r:id="rId284" xr:uid="{A567A5BF-6C5A-4A74-A3EE-1E52FFEE101E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
